--- a/数据整理/stocks/A股/深证主板/000526-紫光学大.xlsx
+++ b/数据整理/stocks/A股/深证主板/000526-紫光学大.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>58.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>43.19</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.84</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0786</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
@@ -520,25 +540,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519694</t>
+          <t>519692</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>交银蓝筹混合</t>
+          <t>交银成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>86.42</t>
+          <t>34.83</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>10</v>
       </c>
     </row>
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519692</t>
+          <t>960016</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>交银成长混合A</t>
+          <t>交银成长混合H</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>86.04</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>2.77</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002770</t>
+          <t>519694</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信新回报灵活配置混合A</t>
+          <t>交银蓝筹混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.48</t>
+          <t>26.09</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002771</t>
+          <t>002770</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信新回报灵活配置混合C</t>
+          <t>安信新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>78.48</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>5.00</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4300</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>7</v>
       </c>
     </row>
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>960016</t>
+          <t>006223</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银成长混合H</t>
+          <t>交银施罗德创新成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.04</t>
+          <t>10.14</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -660,26 +730,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>006223</t>
+          <t>010033</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>交银施罗德创新成长混合</t>
+          <t>安信成长精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.08</t>
+          <t>13.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3527</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010033</t>
+          <t>002771</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信成长精选混合A</t>
+          <t>安信新回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>32.54</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>4</v>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -726,15 +816,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>32.54</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>2.55</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>4</v>
       </c>
     </row>
@@ -749,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -770,15 +870,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -790,26 +900,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>410007</t>
+          <t>010143</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华富价值增长混合</t>
+          <t>交银施罗德启欣混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>76.99</t>
+          <t>50.75</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.05</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>68.45</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0099</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -818,26 +938,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010006</t>
+          <t>010033</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>南方誉鼎一年持有期混合A</t>
+          <t>安信成长精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>22.40</t>
+          <t>8.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4210</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -846,26 +976,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010007</t>
+          <t>410003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方誉鼎一年持有期混合C</t>
+          <t>华富成长趋势混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>22.40</t>
+          <t>10.53</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4012</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010033</t>
+          <t>002770</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信成长精选混合A</t>
+          <t>安信新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2986</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -902,26 +1052,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010034</t>
+          <t>003956</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>安信成长精选混合C</t>
+          <t>南方现代教育股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>84.56</t>
+          <t>7.86</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>5.21</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -930,26 +1090,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010143</t>
+          <t>010006</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>交银施罗德启欣混合</t>
+          <t>南方誉鼎一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>68.45</t>
+          <t>27.76</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2471</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>410003</t>
+          <t>009398</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华富成长趋势混合</t>
+          <t>华富成长企业精选股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>91.26</t>
+          <t>4.74</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>9</v>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1607</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>002770</t>
+          <t>002771</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>安信新回报灵活配置混合A</t>
+          <t>安信新回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>83.08</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>5.53</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>7</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002771</t>
+          <t>410007</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>安信新回报灵活配置混合C</t>
+          <t>华富价值增长混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>83.08</t>
+          <t>2.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>5.53</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>76.99</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1042,26 +1242,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003956</t>
+          <t>010007</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>南方现代教育股票</t>
+          <t>南方誉鼎一年持有期混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>92.29</t>
+          <t>6.01</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>22.40</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0535</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="12">
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009398</t>
+          <t>010034</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华富成长企业精选股票</t>
+          <t>安信成长精选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>94.50</t>
+          <t>0.64</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000526-紫光学大.xlsx
+++ b/数据整理/stocks/A股/深证主板/000526-紫光学大.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1315,4 +1316,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000526-紫光学大.xlsx
+++ b/数据整理/stocks/A股/深证主板/000526-紫光学大.xlsx
@@ -1340,12 +1340,12 @@
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>持有市值(亿元)</t>
         </is>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000526-紫光学大.xlsx
+++ b/数据整理/stocks/A股/深证主板/000526-紫光学大.xlsx
@@ -6,9 +6,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,395 +452,65 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010143</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>交银施罗德启欣混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>58.62</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>43.19</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.84</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.0786</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>5</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.13</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>519692</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>交银成长混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.9648</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>960016</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>交银成长混合H</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>34.83</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>86.04</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9648</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519694</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>交银蓝筹混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>26.09</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>86.42</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.75</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.7175</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002770</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>8.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>78.48</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4300</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006223</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>交银施罗德创新成长混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>10.14</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>90.08</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.62</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3671</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010033</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>安信成长精选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>13.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.3527</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002771</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>安信新回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.89</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>78.48</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1445</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010034</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>安信成长精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.64</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>32.54</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.55</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0163</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.04</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1324,64 +994,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>11</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.13</v>
+          <t>010143</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德启欣混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>58.62</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>43.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0786</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.04</v>
+          <t>519692</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>交银成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9648</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>960016</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银成长混合H</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.83</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.04</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9648</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519694</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.09</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.42</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4300</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006223</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德创新成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>10.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3671</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3527</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1445</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>32.54</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>